--- a/post_comment_count/Mid_Pendamic_data/EatingDisorders_Comment_Count.xlsx
+++ b/post_comment_count/Mid_Pendamic_data/EatingDisorders_Comment_Count.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\NDSU\MSCourses\pythonProject\post_comment_count\Mid_Pendamic_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2996D5E-80D7-453B-B2BC-F98F545576B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Count" sheetId="1" r:id="rId1"/>
     <sheet name="Weekly Count" sheetId="2" r:id="rId2"/>
     <sheet name="Monthly Count" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2286,8 +2302,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2350,6 +2366,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2396,7 +2420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2428,9 +2452,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2462,6 +2504,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2637,14 +2697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C741"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2652,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2663,7 +2723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2674,7 +2734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2685,7 +2745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2696,7 +2756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2707,7 +2767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2718,7 +2778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2729,7 +2789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2740,7 +2800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2751,7 +2811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2762,7 +2822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2773,7 +2833,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2784,7 +2844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2795,7 +2855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2806,7 +2866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2817,7 +2877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2828,7 +2888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2839,7 +2899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2850,7 +2910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2861,7 +2921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2872,7 +2932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2883,7 +2943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2894,7 +2954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2905,7 +2965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2916,7 +2976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2927,7 +2987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2938,7 +2998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2949,7 +3009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2960,7 +3020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2971,7 +3031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2982,7 +3042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2993,7 +3053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3004,7 +3064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3015,7 +3075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3026,7 +3086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3037,7 +3097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3048,7 +3108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3059,7 +3119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3070,7 +3130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3081,7 +3141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3092,7 +3152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3103,7 +3163,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3114,7 +3174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3125,7 +3185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3136,7 +3196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3147,7 +3207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3158,7 +3218,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3169,7 +3229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3180,7 +3240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3191,7 +3251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3202,7 +3262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3213,7 +3273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3224,7 +3284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3235,7 +3295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3246,7 +3306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3257,7 +3317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3268,7 +3328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3279,7 +3339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3290,7 +3350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3301,7 +3361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3312,7 +3372,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3323,7 +3383,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3334,7 +3394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3345,7 +3405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3356,7 +3416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3367,7 +3427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3378,7 +3438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3389,7 +3449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3400,7 +3460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3411,7 +3471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3422,7 +3482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3433,7 +3493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3444,7 +3504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3455,7 +3515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3466,7 +3526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3477,7 +3537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3488,7 +3548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3499,7 +3559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3510,7 +3570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3521,7 +3581,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3532,7 +3592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3543,7 +3603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3554,7 +3614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3565,7 +3625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3576,7 +3636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3587,7 +3647,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3598,7 +3658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3609,7 +3669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3620,7 +3680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3631,7 +3691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3642,7 +3702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3653,7 +3713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3664,7 +3724,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3675,7 +3735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3686,7 +3746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3697,7 +3757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3708,7 +3768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3719,7 +3779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3730,7 +3790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3741,7 +3801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3752,7 +3812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3763,7 +3823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3774,7 +3834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3785,7 +3845,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3796,7 +3856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3807,7 +3867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3818,7 +3878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3829,7 +3889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3840,7 +3900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3851,7 +3911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3862,7 +3922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3873,7 +3933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3884,7 +3944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3895,7 +3955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3906,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3917,7 +3977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3928,7 +3988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3939,7 +3999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3950,7 +4010,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3961,7 +4021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3972,7 +4032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3983,7 +4043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3994,7 +4054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4005,7 +4065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4016,7 +4076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4027,7 +4087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4038,7 +4098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4049,7 +4109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4060,7 +4120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4071,7 +4131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4082,7 +4142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4093,7 +4153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4104,7 +4164,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4115,7 +4175,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4126,7 +4186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4137,7 +4197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4148,7 +4208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4159,7 +4219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4170,7 +4230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4181,7 +4241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4192,7 +4252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4203,7 +4263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4214,7 +4274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4225,7 +4285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4236,7 +4296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4247,7 +4307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4258,7 +4318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4269,7 +4329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4280,7 +4340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4291,7 +4351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4302,7 +4362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4313,7 +4373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4324,7 +4384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4335,7 +4395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4346,7 +4406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4357,7 +4417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4368,7 +4428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4379,7 +4439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4390,7 +4450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4401,7 +4461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4412,7 +4472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4423,7 +4483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4434,7 +4494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4445,7 +4505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4456,7 +4516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4467,7 +4527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4478,7 +4538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4489,7 +4549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4500,7 +4560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4511,7 +4571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4522,7 +4582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4533,7 +4593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4544,7 +4604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4555,7 +4615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4566,7 +4626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4577,7 +4637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4588,7 +4648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4599,7 +4659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4610,7 +4670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4621,7 +4681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4632,7 +4692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4643,7 +4703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4654,7 +4714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4665,7 +4725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4676,7 +4736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4687,7 +4747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4698,7 +4758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4709,7 +4769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4720,7 +4780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4731,7 +4791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4742,7 +4802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4753,7 +4813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4764,7 +4824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4775,7 +4835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4786,7 +4846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4797,7 +4857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4808,7 +4868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4819,7 +4879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4830,7 +4890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4841,7 +4901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4852,7 +4912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4863,7 +4923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4874,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4885,7 +4945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4896,7 +4956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4907,7 +4967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4918,7 +4978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4929,7 +4989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4940,7 +5000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4951,7 +5011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4962,7 +5022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4973,7 +5033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4984,7 +5044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4995,7 +5055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5006,7 +5066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5017,7 +5077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5028,7 +5088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5039,7 +5099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5050,7 +5110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5061,7 +5121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5072,7 +5132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5083,7 +5143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5094,7 +5154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5105,7 +5165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5116,7 +5176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5127,7 +5187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5138,7 +5198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5149,7 +5209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5160,7 +5220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5171,7 +5231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5182,7 +5242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5193,7 +5253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5204,7 +5264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5215,7 +5275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5226,7 +5286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5237,7 +5297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5248,7 +5308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5259,7 +5319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5270,7 +5330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5281,7 +5341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5292,7 +5352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5303,7 +5363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5314,7 +5374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -5325,7 +5385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -5336,7 +5396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -5347,7 +5407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -5358,7 +5418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -5369,7 +5429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -5380,7 +5440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -5391,7 +5451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -5402,7 +5462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -5413,7 +5473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -5424,7 +5484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -5435,7 +5495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -5446,7 +5506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -5457,7 +5517,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -5468,7 +5528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -5479,7 +5539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -5490,7 +5550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -5501,7 +5561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -5512,7 +5572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -5523,7 +5583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -5534,7 +5594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -5545,7 +5605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -5556,7 +5616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -5567,7 +5627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -5578,7 +5638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -5589,7 +5649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -5600,7 +5660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -5611,7 +5671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -5622,7 +5682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -5633,7 +5693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -5644,7 +5704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -5655,7 +5715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -5666,7 +5726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -5677,7 +5737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -5688,7 +5748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -5699,7 +5759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -5710,7 +5770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -5721,7 +5781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -5732,7 +5792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -5743,7 +5803,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -5754,7 +5814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -5765,7 +5825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -5776,7 +5836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -5787,7 +5847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -5798,7 +5858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -5809,7 +5869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -5820,7 +5880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -5831,7 +5891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -5842,7 +5902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -5853,7 +5913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -5864,7 +5924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -5875,7 +5935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -5886,7 +5946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -5897,7 +5957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -5908,7 +5968,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -5919,7 +5979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -5930,7 +5990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -5941,7 +6001,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -5952,7 +6012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -5963,7 +6023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -5974,7 +6034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -5985,7 +6045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -5996,7 +6056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -6007,7 +6067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -6018,7 +6078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -6029,7 +6089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -6040,7 +6100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -6051,7 +6111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -6062,7 +6122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -6073,7 +6133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -6084,7 +6144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -6095,7 +6155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -6106,7 +6166,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -6117,7 +6177,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -6128,7 +6188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -6139,7 +6199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -6150,7 +6210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -6161,7 +6221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -6172,7 +6232,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -6183,7 +6243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -6194,7 +6254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -6205,7 +6265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -6216,7 +6276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -6227,7 +6287,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -6238,7 +6298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -6249,7 +6309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -6260,7 +6320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -6271,7 +6331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -6282,7 +6342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -6293,7 +6353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -6304,7 +6364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -6315,7 +6375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -6326,7 +6386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -6337,7 +6397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -6348,7 +6408,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -6359,7 +6419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -6370,7 +6430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -6381,7 +6441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -6392,7 +6452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -6403,7 +6463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -6414,7 +6474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -6425,7 +6485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -6436,7 +6496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -6447,7 +6507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -6458,7 +6518,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -6469,7 +6529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -6480,7 +6540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -6491,7 +6551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -6502,7 +6562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -6513,7 +6573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -6524,7 +6584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -6535,7 +6595,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -6546,7 +6606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -6557,7 +6617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -6568,7 +6628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -6579,7 +6639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -6590,7 +6650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -6601,7 +6661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -6612,7 +6672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -6623,7 +6683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -6634,7 +6694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -6645,7 +6705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -6656,7 +6716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -6667,7 +6727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -6678,7 +6738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -6689,7 +6749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -6700,7 +6760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -6711,7 +6771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -6722,7 +6782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -6733,7 +6793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -6744,7 +6804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -6755,7 +6815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -6766,7 +6826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -6777,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -6788,7 +6848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -6799,7 +6859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -6810,7 +6870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -6821,7 +6881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -6832,7 +6892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -6843,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -6854,7 +6914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -6865,7 +6925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -6876,7 +6936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -6887,7 +6947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -6898,7 +6958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -6909,7 +6969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -6920,7 +6980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -6931,7 +6991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -6942,7 +7002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -6953,7 +7013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -6964,7 +7024,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -6975,7 +7035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -6986,7 +7046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -6997,7 +7057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -7008,7 +7068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -7019,7 +7079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -7030,7 +7090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -7041,7 +7101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -7052,7 +7112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -7063,7 +7123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -7074,7 +7134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -7085,7 +7145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -7096,7 +7156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -7107,7 +7167,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -7118,7 +7178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -7129,7 +7189,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -7140,7 +7200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -7151,7 +7211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -7162,7 +7222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -7173,7 +7233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -7184,7 +7244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -7195,7 +7255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -7206,7 +7266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -7217,7 +7277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -7228,7 +7288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -7239,7 +7299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -7250,7 +7310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -7261,7 +7321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -7272,7 +7332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -7283,7 +7343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -7294,7 +7354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -7305,7 +7365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -7316,7 +7376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -7327,7 +7387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -7338,7 +7398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -7349,7 +7409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -7360,7 +7420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -7371,7 +7431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -7382,7 +7442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -7393,7 +7453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -7404,7 +7464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -7415,7 +7475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -7426,7 +7486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -7437,7 +7497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -7448,7 +7508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -7459,7 +7519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -7470,7 +7530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -7481,7 +7541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -7492,7 +7552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -7503,7 +7563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -7514,7 +7574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -7525,7 +7585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -7536,7 +7596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -7547,7 +7607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -7558,7 +7618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -7569,7 +7629,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -7580,7 +7640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -7591,7 +7651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -7602,7 +7662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -7613,7 +7673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -7624,7 +7684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -7635,7 +7695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -7646,7 +7706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -7657,7 +7717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -7668,7 +7728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -7679,7 +7739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -7690,7 +7750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -7701,7 +7761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -7712,7 +7772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -7723,7 +7783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -7734,7 +7794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -7745,7 +7805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -7756,7 +7816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -7767,7 +7827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -7778,7 +7838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -7789,7 +7849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -7800,7 +7860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -7811,7 +7871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -7822,7 +7882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -7833,7 +7893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -7844,7 +7904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -7855,7 +7915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -7866,7 +7926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -7877,7 +7937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -7888,7 +7948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -7899,7 +7959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -7910,7 +7970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -7921,7 +7981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -7932,7 +7992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -7943,7 +8003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -7954,7 +8014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -7965,7 +8025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -7976,7 +8036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -7987,7 +8047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -7998,7 +8058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -8009,7 +8069,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -8020,7 +8080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -8031,7 +8091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -8042,7 +8102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -8053,7 +8113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -8064,7 +8124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -8075,7 +8135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -8086,7 +8146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -8097,7 +8157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -8108,7 +8168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -8119,7 +8179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -8130,7 +8190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -8141,7 +8201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -8152,7 +8212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -8163,7 +8223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -8174,7 +8234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -8185,7 +8245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -8196,7 +8256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -8207,7 +8267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -8218,7 +8278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -8229,7 +8289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -8240,7 +8300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -8251,7 +8311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -8262,7 +8322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -8273,7 +8333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -8284,7 +8344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -8295,7 +8355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -8306,7 +8366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -8317,7 +8377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -8328,7 +8388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -8339,7 +8399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -8350,7 +8410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -8361,7 +8421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -8372,7 +8432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -8383,7 +8443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -8394,7 +8454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -8405,7 +8465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -8416,7 +8476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -8427,7 +8487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -8438,7 +8498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -8449,7 +8509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -8460,7 +8520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -8471,7 +8531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -8482,7 +8542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -8493,7 +8553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -8504,7 +8564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -8515,7 +8575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -8526,7 +8586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -8537,7 +8597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -8548,7 +8608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -8559,7 +8619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -8570,7 +8630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -8581,7 +8641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -8592,7 +8652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -8603,7 +8663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -8614,7 +8674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -8625,7 +8685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -8636,7 +8696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -8647,7 +8707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -8658,7 +8718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -8669,7 +8729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -8680,7 +8740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -8691,7 +8751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -8702,7 +8762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -8713,7 +8773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -8724,7 +8784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -8735,7 +8795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -8746,7 +8806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -8757,7 +8817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -8768,7 +8828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -8779,7 +8839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -8790,7 +8850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -8801,7 +8861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -8812,7 +8872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -8823,7 +8883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -8834,7 +8894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -8845,7 +8905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -8856,7 +8916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -8867,7 +8927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -8878,7 +8938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -8889,7 +8949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -8900,7 +8960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -8911,7 +8971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -8922,7 +8982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -8933,7 +8993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -8944,7 +9004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -8955,7 +9015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -8966,7 +9026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -8977,7 +9037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -8988,7 +9048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -8999,7 +9059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -9010,7 +9070,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -9021,7 +9081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -9032,7 +9092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -9043,7 +9103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -9054,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -9065,7 +9125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -9076,7 +9136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -9087,7 +9147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -9098,7 +9158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -9109,7 +9169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -9120,7 +9180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -9131,7 +9191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -9142,7 +9202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -9153,7 +9213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -9164,7 +9224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -9175,7 +9235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -9186,7 +9246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -9197,7 +9257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -9208,7 +9268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -9219,7 +9279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -9230,7 +9290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -9241,7 +9301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -9252,7 +9312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -9263,7 +9323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -9274,7 +9334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -9285,7 +9345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -9296,7 +9356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -9307,7 +9367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -9318,7 +9378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -9329,7 +9389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -9340,7 +9400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -9351,7 +9411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -9362,7 +9422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -9373,7 +9433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -9384,7 +9444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -9395,7 +9455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -9406,7 +9466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -9417,7 +9477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -9428,7 +9488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -9439,7 +9499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -9450,7 +9510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -9461,7 +9521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -9472,7 +9532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -9483,7 +9543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -9494,7 +9554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -9505,7 +9565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -9516,7 +9576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -9527,7 +9587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -9538,7 +9598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -9549,7 +9609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -9560,7 +9620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -9571,7 +9631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -9582,7 +9642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -9593,7 +9653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -9604,7 +9664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -9615,7 +9675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -9626,7 +9686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -9637,7 +9697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -9648,7 +9708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -9659,7 +9719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -9670,7 +9730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -9681,7 +9741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -9692,7 +9752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -9703,7 +9763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -9714,7 +9774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -9725,7 +9785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -9736,7 +9796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -9747,7 +9807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -9758,7 +9818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -9769,7 +9829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -9780,7 +9840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -9791,7 +9851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -9802,7 +9862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -9813,7 +9873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -9824,7 +9884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -9835,7 +9895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -9846,7 +9906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -9857,7 +9917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -9868,7 +9928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -9879,7 +9939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -9890,7 +9950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -9901,7 +9961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -9912,7 +9972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -9923,7 +9983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -9934,7 +9994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -9945,7 +10005,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -9956,7 +10016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -9967,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -9978,7 +10038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -9989,7 +10049,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -10000,7 +10060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -10011,7 +10071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -10022,7 +10082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -10033,7 +10093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -10044,7 +10104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -10055,7 +10115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -10066,7 +10126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -10077,7 +10137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -10088,7 +10148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -10099,7 +10159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -10110,7 +10170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -10121,7 +10181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -10132,7 +10192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -10143,7 +10203,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -10154,7 +10214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -10165,7 +10225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -10176,7 +10236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -10187,7 +10247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -10198,7 +10258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -10209,7 +10269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -10220,7 +10280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -10231,7 +10291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -10242,7 +10302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -10253,7 +10313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -10264,7 +10324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -10275,7 +10335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -10286,7 +10346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -10297,7 +10357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -10308,7 +10368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -10319,7 +10379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -10330,7 +10390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -10341,7 +10401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -10352,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -10363,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -10374,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -10385,7 +10445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -10396,7 +10456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -10407,7 +10467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -10418,7 +10478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -10429,7 +10489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -10440,7 +10500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -10451,7 +10511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -10462,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -10473,7 +10533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -10484,7 +10544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -10495,7 +10555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -10506,7 +10566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -10517,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -10528,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -10539,7 +10599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -10550,7 +10610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -10561,7 +10621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -10572,7 +10632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="722" spans="1:3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -10583,7 +10643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="723" spans="1:3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -10594,7 +10654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -10605,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -10616,7 +10676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="726" spans="1:3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -10627,7 +10687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -10638,7 +10698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -10649,7 +10709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -10660,7 +10720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -10671,7 +10731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -10682,7 +10742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -10693,7 +10753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -10704,7 +10764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -10715,7 +10775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="735" spans="1:3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -10726,7 +10786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -10737,7 +10797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -10748,7 +10808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -10759,7 +10819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -10770,7 +10830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="740" spans="1:3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -10781,7 +10841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -10798,14 +10858,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>742</v>
       </c>
@@ -10816,7 +10882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10830,7 +10896,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10844,7 +10910,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10858,7 +10924,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10872,7 +10938,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10886,7 +10952,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10900,7 +10966,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10914,7 +10980,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10928,7 +10994,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10942,7 +11008,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10956,7 +11022,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10970,7 +11036,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10984,7 +11050,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10998,7 +11064,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -11012,7 +11078,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -11026,7 +11092,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -11040,7 +11106,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -11054,7 +11120,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11068,7 +11134,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11082,7 +11148,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -11096,7 +11162,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -11110,7 +11176,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -11124,7 +11190,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -11138,7 +11204,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -11152,7 +11218,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -11166,7 +11232,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -11180,7 +11246,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11194,7 +11260,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11208,7 +11274,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11222,7 +11288,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11236,7 +11302,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -11250,7 +11316,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -11264,7 +11330,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -11278,7 +11344,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -11292,7 +11358,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -11306,7 +11372,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -11320,7 +11386,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -11334,7 +11400,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11348,7 +11414,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11362,7 +11428,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11376,7 +11442,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11390,7 +11456,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11404,7 +11470,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11418,7 +11484,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11432,7 +11498,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11446,7 +11512,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11460,7 +11526,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11474,7 +11540,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11488,7 +11554,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11502,7 +11568,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -11516,7 +11582,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -11530,7 +11596,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -11544,7 +11610,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -11558,7 +11624,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -11572,7 +11638,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -11586,7 +11652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -11600,7 +11666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -11614,7 +11680,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -11628,7 +11694,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -11642,7 +11708,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -11656,7 +11722,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -11670,7 +11736,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -11684,7 +11750,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -11698,7 +11764,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -11712,7 +11778,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -11726,7 +11792,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -11740,7 +11806,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -11754,7 +11820,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -11768,7 +11834,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -11782,7 +11848,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11796,7 +11862,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11810,7 +11876,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11824,7 +11890,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11838,7 +11904,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11852,7 +11918,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11866,7 +11932,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11880,7 +11946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11894,7 +11960,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11908,7 +11974,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11922,7 +11988,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11936,7 +12002,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11950,7 +12016,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11964,7 +12030,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11978,7 +12044,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11992,7 +12058,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -12006,7 +12072,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -12020,7 +12086,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -12034,7 +12100,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -12048,7 +12114,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12062,7 +12128,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12076,7 +12142,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -12090,7 +12156,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -12104,7 +12170,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -12118,7 +12184,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -12132,7 +12198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -12146,7 +12212,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -12160,7 +12226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -12174,7 +12240,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -12188,7 +12254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -12202,7 +12268,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -12216,7 +12282,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -12230,7 +12296,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -12244,7 +12310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -12258,7 +12324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -12272,7 +12338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -12286,7 +12352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -12296,11 +12362,8 @@
       <c r="C107" t="s">
         <v>724</v>
       </c>
-      <c r="D107">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -12310,11 +12373,8 @@
       <c r="C108" t="s">
         <v>731</v>
       </c>
-      <c r="D108">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -12324,11 +12384,8 @@
       <c r="C109" t="s">
         <v>738</v>
       </c>
-      <c r="D109">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -12338,11 +12395,8 @@
       <c r="C110" t="s">
         <v>749</v>
       </c>
-      <c r="D110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -12352,11 +12406,8 @@
       <c r="C111" t="s">
         <v>750</v>
       </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -12365,9 +12416,6 @@
       </c>
       <c r="C112" t="s">
         <v>751</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12376,14 +12424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>742</v>
       </c>
@@ -12394,7 +12442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12408,7 +12456,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12422,7 +12470,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12436,7 +12484,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12450,7 +12498,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12464,7 +12512,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12478,7 +12526,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12492,7 +12540,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12506,7 +12554,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12520,7 +12568,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12534,7 +12582,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12548,7 +12596,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12562,7 +12610,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12576,7 +12624,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12590,7 +12638,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12604,7 +12652,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12618,7 +12666,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12632,7 +12680,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12646,7 +12694,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12660,7 +12708,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12674,7 +12722,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12688,7 +12736,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12702,7 +12750,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12716,7 +12764,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12730,7 +12778,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12744,7 +12792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
